--- a/data/3T/thermometry_analysis_Method.REGIONWISE_BOOTSTRAP.xlsx
+++ b/data/3T/thermometry_analysis_Method.REGIONWISE_BOOTSTRAP.xlsx
@@ -480,10 +480,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>9.992453778919103</v>
+        <v>10.10857839943257</v>
       </c>
       <c r="E2" t="n">
-        <v>0.287811754187309</v>
+        <v>0.3251935834333333</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -500,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>10.10857839943257</v>
+        <v>9.992453778919103</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3251935834333333</v>
+        <v>0.287811754187309</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -520,10 +520,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>11.23206565283856</v>
+        <v>10.9301682871816</v>
       </c>
       <c r="E4" t="n">
-        <v>0.344013092057436</v>
+        <v>0.3418071732138103</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -540,10 +540,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>10.9301682871816</v>
+        <v>11.23206565283856</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3418071732138103</v>
+        <v>0.344013092057436</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -560,10 +560,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>12.36835486658175</v>
+        <v>11.56845410765602</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3843332476524426</v>
+        <v>0.3383422763088164</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -580,10 +580,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>11.56845410765602</v>
+        <v>12.36835486658175</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3383422763088164</v>
+        <v>0.3843332476524426</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -600,10 +600,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>13.2399779545139</v>
+        <v>12.20114075165322</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4783879085873868</v>
+        <v>0.3173074193737433</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>12.20114075165322</v>
+        <v>13.2399779545139</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3173074193737433</v>
+        <v>0.4783879085873868</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -640,10 +640,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>14.32611534610258</v>
+        <v>12.98811862555542</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4698530346716841</v>
+        <v>0.3437019179304072</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -660,10 +660,10 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>12.98811862555542</v>
+        <v>14.32611534610258</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3437019179304072</v>
+        <v>0.4698530346716841</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>15.28532866917971</v>
+        <v>13.95986055928058</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4905165895958741</v>
+        <v>0.3993950526869441</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -700,10 +700,10 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>13.95986055928058</v>
+        <v>15.28532866917971</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3993950526869441</v>
+        <v>0.4905165895958741</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -720,10 +720,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>15.92520679514612</v>
+        <v>14.72354656194007</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4945554042885078</v>
+        <v>0.4337252570384458</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -740,10 +740,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>14.72354656194007</v>
+        <v>15.92520679514612</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4337252570384458</v>
+        <v>0.4945554042885078</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -760,10 +760,10 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>16.49333370748002</v>
+        <v>15.41781746383798</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4989445773944082</v>
+        <v>0.4543805054829342</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -780,10 +780,10 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>15.41781746383798</v>
+        <v>16.49333370748002</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4543805054829342</v>
+        <v>0.4989445773944082</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>

--- a/data/3T/thermometry_analysis_Method.REGIONWISE_BOOTSTRAP.xlsx
+++ b/data/3T/thermometry_analysis_Method.REGIONWISE_BOOTSTRAP.xlsx
@@ -480,10 +480,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>10.10857839943257</v>
+        <v>10.1403762618524</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3251935834333333</v>
+        <v>0.3401649376635241</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -500,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>9.992453778919103</v>
+        <v>10.0144558299543</v>
       </c>
       <c r="E3" t="n">
-        <v>0.287811754187309</v>
+        <v>0.3295199693804857</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -520,10 +520,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>10.9301682871816</v>
+        <v>10.97473529764362</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3418071732138103</v>
+        <v>0.3392952363579432</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -540,10 +540,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>11.23206565283856</v>
+        <v>11.27740638296911</v>
       </c>
       <c r="E5" t="n">
-        <v>0.344013092057436</v>
+        <v>0.352369311859356</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -560,10 +560,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>11.56845410765602</v>
+        <v>11.61404378698954</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3383422763088164</v>
+        <v>0.3363480743703146</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -580,10 +580,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>12.36835486658175</v>
+        <v>12.42598771940949</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3843332476524426</v>
+        <v>0.3776266911159403</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -600,10 +600,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>12.20114075165322</v>
+        <v>12.25033722608613</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3173074193737433</v>
+        <v>0.3298622200525696</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>13.2399779545139</v>
+        <v>13.28187451693018</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4783879085873868</v>
+        <v>0.4918318573854879</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -640,10 +640,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>12.98811862555542</v>
+        <v>13.04722761421902</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3437019179304072</v>
+        <v>0.3532769108607338</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -660,10 +660,10 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>14.32611534610258</v>
+        <v>14.3623631510613</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4698530346716841</v>
+        <v>0.4785707621321235</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>13.95986055928058</v>
+        <v>14.02456987818324</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3993950526869441</v>
+        <v>0.3981500633966313</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -700,10 +700,10 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>15.28532866917971</v>
+        <v>15.31754357659524</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4905165895958741</v>
+        <v>0.4992000233112369</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -720,10 +720,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>14.72354656194007</v>
+        <v>14.79142891025522</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4337252570384458</v>
+        <v>0.4317532294218546</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -740,10 +740,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>15.92520679514612</v>
+        <v>15.96220731988605</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4945554042885078</v>
+        <v>0.4902791803780185</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -760,10 +760,10 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>15.41781746383798</v>
+        <v>15.49040288444248</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4543805054829342</v>
+        <v>0.4565458398706101</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -780,10 +780,10 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>16.49333370748002</v>
+        <v>16.52404572044733</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4989445773944082</v>
+        <v>0.4898259902740931</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>

--- a/data/3T/thermometry_analysis_Method.REGIONWISE_BOOTSTRAP.xlsx
+++ b/data/3T/thermometry_analysis_Method.REGIONWISE_BOOTSTRAP.xlsx
@@ -480,10 +480,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>10.1403762618524</v>
+        <v>10.12770979128543</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3401649376635241</v>
+        <v>0.3518827727940314</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -500,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>10.0144558299543</v>
+        <v>10.00981298370624</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3295199693804857</v>
+        <v>0.3496061358787344</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -520,10 +520,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>10.97473529764362</v>
+        <v>10.97086786472288</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3392952363579432</v>
+        <v>0.3476744231102438</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -540,10 +540,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>11.27740638296911</v>
+        <v>11.3116805281705</v>
       </c>
       <c r="E5" t="n">
-        <v>0.352369311859356</v>
+        <v>0.3711347672452005</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -560,10 +560,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>11.61404378698954</v>
+        <v>11.60548891050738</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3363480743703146</v>
+        <v>0.3492634201141713</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -580,10 +580,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>12.42598771940949</v>
+        <v>12.45127125087543</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3776266911159403</v>
+        <v>0.3818959428321488</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -600,10 +600,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>12.25033722608613</v>
+        <v>12.24674693757044</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3298622200525696</v>
+        <v>0.3445538954406012</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>13.28187451693018</v>
+        <v>13.32491397540937</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4918318573854879</v>
+        <v>0.4837960522425848</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -640,10 +640,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>13.04722761421902</v>
+        <v>13.02723225022567</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3532769108607338</v>
+        <v>0.3714054060893824</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -660,10 +660,10 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>14.3623631510613</v>
+        <v>14.39501082451812</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4785707621321235</v>
+        <v>0.4739161507076482</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>14.02456987818324</v>
+        <v>13.99979296741728</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3981500633966313</v>
+        <v>0.4199506588063245</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -700,10 +700,10 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>15.31754357659524</v>
+        <v>15.35968012255694</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4992000233112369</v>
+        <v>0.5019421499156126</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -720,10 +720,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>14.79142891025522</v>
+        <v>14.75905656007805</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4317532294218546</v>
+        <v>0.4647557493030636</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -740,10 +740,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>15.96220731988605</v>
+        <v>16.00302776518661</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4902791803780185</v>
+        <v>0.482666580569297</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -760,10 +760,10 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>15.49040288444248</v>
+        <v>15.45428397135874</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4565458398706101</v>
+        <v>0.4920821891743656</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -780,10 +780,10 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>16.52404572044733</v>
+        <v>16.57156111917019</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4898259902740931</v>
+        <v>0.4868144119506137</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>

--- a/data/3T/thermometry_analysis_Method.REGIONWISE_BOOTSTRAP.xlsx
+++ b/data/3T/thermometry_analysis_Method.REGIONWISE_BOOTSTRAP.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,16 @@
           <t>interval</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>num_samples</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>fractional_uncertainty</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -488,6 +498,12 @@
       <c r="F2" t="n">
         <v>1</v>
       </c>
+      <c r="G2" t="n">
+        <v>956</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.03474455528897709</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -507,6 +523,12 @@
       </c>
       <c r="F3" t="n">
         <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>731</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.03492634042692064</v>
       </c>
     </row>
     <row r="4">
@@ -528,6 +550,12 @@
       <c r="F4" t="n">
         <v>1</v>
       </c>
+      <c r="G4" t="n">
+        <v>971</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.03169069461024138</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -548,6 +576,12 @@
       <c r="F5" t="n">
         <v>1</v>
       </c>
+      <c r="G5" t="n">
+        <v>772</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.032809869967679</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -568,6 +602,12 @@
       <c r="F6" t="n">
         <v>1</v>
       </c>
+      <c r="G6" t="n">
+        <v>973</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.03009467527024692</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -588,6 +628,12 @@
       <c r="F7" t="n">
         <v>1</v>
       </c>
+      <c r="G7" t="n">
+        <v>783</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.03067124112369637</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -608,6 +654,12 @@
       <c r="F8" t="n">
         <v>1</v>
       </c>
+      <c r="G8" t="n">
+        <v>940</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02813431984812085</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -628,6 +680,12 @@
       <c r="F9" t="n">
         <v>1</v>
       </c>
+      <c r="G9" t="n">
+        <v>792</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.03630763043839624</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -648,6 +706,12 @@
       <c r="F10" t="n">
         <v>1</v>
       </c>
+      <c r="G10" t="n">
+        <v>937</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.02850992436117416</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -668,6 +732,12 @@
       <c r="F11" t="n">
         <v>1</v>
       </c>
+      <c r="G11" t="n">
+        <v>804</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.03292225038833987</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -688,6 +758,12 @@
       <c r="F12" t="n">
         <v>1</v>
       </c>
+      <c r="G12" t="n">
+        <v>953</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.02999691922471324</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -708,6 +784,12 @@
       <c r="F13" t="n">
         <v>1</v>
       </c>
+      <c r="G13" t="n">
+        <v>808</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.03267920594117515</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -728,6 +810,12 @@
       <c r="F14" t="n">
         <v>1</v>
       </c>
+      <c r="G14" t="n">
+        <v>956</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.03148952966005882</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -748,6 +836,12 @@
       <c r="F15" t="n">
         <v>1</v>
       </c>
+      <c r="G15" t="n">
+        <v>796</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.03016095376771777</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -768,6 +862,12 @@
       <c r="F16" t="n">
         <v>1</v>
       </c>
+      <c r="G16" t="n">
+        <v>964</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.03184115097705828</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -787,6 +887,12 @@
       </c>
       <c r="F17" t="n">
         <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>790</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.02937649678565651</v>
       </c>
     </row>
   </sheetData>
